--- a/其他共享文件/ns卡带.xlsx
+++ b/其他共享文件/ns卡带.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>低估价格</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,6 +40,28 @@
   <si>
     <t>异度之刃3</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喷射战士3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰纹章风花雪月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歧路旅人2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莱莎的炼金工坊1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莱莎的炼金工坊2</t>
+  </si>
+  <si>
+    <t>莱莎的炼金工坊3</t>
   </si>
 </sst>
 </file>
@@ -385,15 +407,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
@@ -440,6 +462,54 @@
       </c>
       <c r="C5">
         <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>215</v>
+      </c>
+      <c r="C7">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>260</v>
+      </c>
+      <c r="C9">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>250</v>
+      </c>
+      <c r="C10">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
